--- a/Assignments/Assigment_3/AC_Trab_3.xlsx
+++ b/Assignments/Assigment_3/AC_Trab_3.xlsx
@@ -1,38 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27618"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{23577BFE-327A-43E9-B336-6E83C340421E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="CS" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
+    <sheet name="CS" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="new map" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Assembly" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191028"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
   <si>
     <t>FFFF</t>
   </si>
@@ -46,7 +29,7 @@
     <t>DFFF</t>
   </si>
   <si>
-    <t>#3 / #4</t>
+    <t xml:space="preserve">#3 / #4</t>
   </si>
   <si>
     <t>D000</t>
@@ -64,13 +47,13 @@
     <t>3FFF</t>
   </si>
   <si>
-    <t>#1 / #2</t>
+    <t xml:space="preserve">#1 / #2</t>
   </si>
   <si>
     <t>Ports</t>
   </si>
   <si>
-    <t>A15 A14 !A13 A12</t>
+    <t xml:space="preserve">A15 A14 !A13 A12</t>
   </si>
   <si>
     <t>1FFF</t>
@@ -88,7 +71,49 @@
     <t>ROM</t>
   </si>
   <si>
-    <t>!A15 !A14</t>
+    <t xml:space="preserve">!A15 !A14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OUT PORT</t>
+  </si>
+  <si>
+    <t>0xFFFF</t>
+  </si>
+  <si>
+    <t>0xFFF0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IN PORT</t>
+  </si>
+  <si>
+    <t>0xFFEF</t>
+  </si>
+  <si>
+    <t>0xFFE0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs = A15 A14 A13 A12 A11 A10 </t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>0x5FFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs = !A15 A14 !A13</t>
+  </si>
+  <si>
+    <t>0x4000</t>
+  </si>
+  <si>
+    <t>0x3FFF</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cs = !A15 !A14</t>
+  </si>
+  <si>
+    <t>0x0000</t>
   </si>
   <si>
     <t>Intrução</t>
@@ -112,7 +137,7 @@
     <t>Data</t>
   </si>
   <si>
-    <t>push r1</t>
+    <t xml:space="preserve">push r1</t>
   </si>
   <si>
     <t>0x0012</t>
@@ -124,7 +149,7 @@
     <t>0x3FFE</t>
   </si>
   <si>
-    <t>ldr r1, [r2, #2]</t>
+    <t xml:space="preserve">ldr r1, [r2, #2]</t>
   </si>
   <si>
     <t>0x0014</t>
@@ -136,7 +161,7 @@
     <t>conf</t>
   </si>
   <si>
-    <t>add r0, r2, #1</t>
+    <t xml:space="preserve">add r0, r2, #1</t>
   </si>
   <si>
     <t>0x0016</t>
@@ -145,7 +170,7 @@
     <t>0xA0A0</t>
   </si>
   <si>
-    <t>strb r3, [r2,#5]</t>
+    <t xml:space="preserve">strb r3, [r2,#5]</t>
   </si>
   <si>
     <t>0x0018</t>
@@ -160,7 +185,7 @@
     <t>HZ</t>
   </si>
   <si>
-    <t>ldr r4, value</t>
+    <t xml:space="preserve">ldr r4, value</t>
   </si>
   <si>
     <t>0x001A</t>
@@ -172,7 +197,7 @@
     <t>0x0022</t>
   </si>
   <si>
-    <t>ldrb r5, [r6, #0]</t>
+    <t xml:space="preserve">ldrb r5, [r6, #0]</t>
   </si>
   <si>
     <t>0x001C</t>
@@ -214,25 +239,23 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2">
     <font>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="11.000000"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
-      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -242,381 +265,607 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.14999847407452621"/>
-        <bgColor indexed="64"/>
+        <bgColor theme="0" tint="-0.14999847407452621"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor theme="5" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor theme="6" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor theme="7" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor theme="8" tint="0.59999389629810485"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="36">
+    <border>
+      <left style="none"/>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="none"/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="none"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
+      <left/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
+      <top/>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </left>
+      <right style="none"/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
       <right style="thin">
-        <color rgb="FF000000"/>
+        <color theme="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
+      <top style="none"/>
+      <bottom style="none"/>
+      <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="35">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+  <cellXfs count="61">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
+    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf fontId="1" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="2" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="2" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="1" fillId="2" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf fontId="0" fillId="3" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="3" borderId="27" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="28" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="29" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="30" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="4" borderId="31" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="24" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="25" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="32" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="33" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="26" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="27" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="32" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="33" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="5" borderId="27" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="28" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="29" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="34" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="35" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="30" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="6" borderId="31" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -624,20 +873,300 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Angsana New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Cordia New"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -679,108 +1208,14 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Display"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
+        <a:latin typeface="Aptos Narrow"/>
+        <a:ea typeface="Arial"/>
+        <a:cs typeface="Arial"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -788,7 +1223,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -814,7 +1249,7 @@
           </a:gsLst>
           <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -866,16 +1301,28 @@
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
@@ -891,7 +1338,7 @@
             <a:satMod val="170000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
@@ -923,7 +1370,7 @@
   </a:themeElements>
   <a:objectDefaults>
     <a:lnDef>
-      <a:spPr/>
+      <a:spPr bwMode="auto"/>
       <a:bodyPr/>
       <a:lstStyle/>
       <a:style>
@@ -942,34 +1389,27 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:V14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="B12" activeCellId="0" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="6" width="3.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="3.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="11" max="14" width="2.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="18" width="2.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col bestFit="1" customWidth="1" min="3" max="6" style="1" width="3.28515625"/>
+    <col bestFit="1" customWidth="1" min="7" max="8" width="3.28515625"/>
+    <col bestFit="1" customWidth="1" min="9" max="10" width="2.28515625"/>
+    <col bestFit="1" customWidth="1" min="11" max="14" style="1" width="2.28515625"/>
+    <col bestFit="1" customWidth="1" min="15" max="18" width="2.28515625"/>
+    <col bestFit="1" customWidth="1" min="22" max="22" width="16.42578125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:22">
+    <row r="2">
       <c r="B2" s="2"/>
       <c r="C2" s="3">
         <v>15</v>
@@ -977,7 +1417,7 @@
       <c r="D2" s="3">
         <v>14</v>
       </c>
-      <c r="E2" s="10">
+      <c r="E2" s="4">
         <v>13</v>
       </c>
       <c r="F2" s="3">
@@ -1021,17 +1461,17 @@
       </c>
       <c r="S2" s="2"/>
     </row>
-    <row r="3" spans="2:22">
-      <c r="B3" s="4" t="s">
+    <row r="3">
+      <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="3">
         <v>1</v>
       </c>
-      <c r="D3" s="20">
-        <v>1</v>
-      </c>
-      <c r="E3" s="18">
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="8">
         <v>1</v>
       </c>
       <c r="F3" s="9">
@@ -1073,24 +1513,24 @@
       <c r="R3" s="5">
         <v>1</v>
       </c>
-      <c r="S3" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:22">
-      <c r="B4" s="4" t="s">
+      <c r="S3" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="10">
-        <v>1</v>
-      </c>
-      <c r="D4" s="22">
-        <v>1</v>
-      </c>
-      <c r="E4" s="28">
-        <v>1</v>
-      </c>
-      <c r="F4" s="29">
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="11">
+        <v>1</v>
+      </c>
+      <c r="E4" s="12">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
         <v>0</v>
       </c>
       <c r="G4" s="2">
@@ -1129,25 +1569,25 @@
       <c r="R4" s="5">
         <v>0</v>
       </c>
-      <c r="S4" s="7"/>
-    </row>
-    <row r="5" spans="2:22">
-      <c r="B5" s="8" t="s">
+      <c r="S4" s="14"/>
+    </row>
+    <row r="5">
+      <c r="B5" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="11">
-        <v>1</v>
-      </c>
-      <c r="D5" s="32">
-        <v>1</v>
-      </c>
-      <c r="E5" s="32">
-        <v>0</v>
-      </c>
-      <c r="F5" s="12">
-        <v>1</v>
-      </c>
-      <c r="G5" s="27">
+      <c r="C5" s="16">
+        <v>1</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17">
+        <v>0</v>
+      </c>
+      <c r="F5" s="18">
+        <v>1</v>
+      </c>
+      <c r="G5" s="19">
         <v>1</v>
       </c>
       <c r="H5" s="2">
@@ -1183,27 +1623,27 @@
       <c r="R5" s="5">
         <v>1</v>
       </c>
-      <c r="S5" s="6" t="s">
+      <c r="S5" s="10" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="2:22">
-      <c r="B6" s="8" t="s">
+    <row r="6">
+      <c r="B6" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="15">
-        <v>1</v>
-      </c>
-      <c r="D6" s="33">
-        <v>1</v>
-      </c>
-      <c r="E6" s="33">
-        <v>0</v>
-      </c>
-      <c r="F6" s="16">
-        <v>1</v>
-      </c>
-      <c r="G6" s="27">
+      <c r="C6" s="20">
+        <v>1</v>
+      </c>
+      <c r="D6" s="21">
+        <v>1</v>
+      </c>
+      <c r="E6" s="21">
+        <v>0</v>
+      </c>
+      <c r="F6" s="22">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
         <v>0</v>
       </c>
       <c r="H6" s="2">
@@ -1239,22 +1679,22 @@
       <c r="R6" s="5">
         <v>0</v>
       </c>
-      <c r="S6" s="7"/>
-    </row>
-    <row r="7" spans="2:22">
-      <c r="B7" s="4" t="s">
+      <c r="S6" s="14"/>
+    </row>
+    <row r="7">
+      <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="21">
-        <v>1</v>
-      </c>
-      <c r="D7" s="30">
-        <v>0</v>
-      </c>
-      <c r="E7" s="31">
-        <v>1</v>
-      </c>
-      <c r="F7" s="25">
+      <c r="C7" s="23">
+        <v>1</v>
+      </c>
+      <c r="D7" s="24">
+        <v>0</v>
+      </c>
+      <c r="E7" s="25">
+        <v>1</v>
+      </c>
+      <c r="F7" s="26">
         <v>1</v>
       </c>
       <c r="G7" s="2">
@@ -1293,21 +1733,21 @@
       <c r="R7" s="5">
         <v>1</v>
       </c>
-      <c r="S7" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="2:22">
-      <c r="B8" s="4" t="s">
+      <c r="S7" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="C8" s="3">
         <v>1</v>
       </c>
-      <c r="D8" s="20">
-        <v>0</v>
-      </c>
-      <c r="E8" s="26">
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="27">
         <v>1</v>
       </c>
       <c r="F8" s="9">
@@ -1349,19 +1789,19 @@
       <c r="R8" s="5">
         <v>0</v>
       </c>
-      <c r="S8" s="7"/>
-    </row>
-    <row r="9" spans="2:22">
-      <c r="B9" s="4" t="s">
+      <c r="S8" s="14"/>
+    </row>
+    <row r="9">
+      <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="3">
         <v>0</v>
       </c>
-      <c r="D9" s="20">
-        <v>1</v>
-      </c>
-      <c r="E9" s="26">
+      <c r="D9" s="7">
+        <v>1</v>
+      </c>
+      <c r="E9" s="27">
         <v>1</v>
       </c>
       <c r="F9" s="9">
@@ -1403,21 +1843,21 @@
       <c r="R9" s="5">
         <v>1</v>
       </c>
-      <c r="S9" s="6" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="2:22">
-      <c r="B10" s="4">
+      <c r="S9" s="10" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="B10" s="6">
         <v>6000</v>
       </c>
-      <c r="C10" s="10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="22">
-        <v>1</v>
-      </c>
-      <c r="E10" s="26">
+      <c r="C10" s="4">
+        <v>0</v>
+      </c>
+      <c r="D10" s="11">
+        <v>1</v>
+      </c>
+      <c r="E10" s="27">
         <v>1</v>
       </c>
       <c r="F10" s="9">
@@ -1459,19 +1899,19 @@
       <c r="R10" s="5">
         <v>0</v>
       </c>
-      <c r="S10" s="7"/>
-    </row>
-    <row r="11" spans="2:22">
-      <c r="B11" s="8" t="s">
+      <c r="S10" s="14"/>
+    </row>
+    <row r="11">
+      <c r="B11" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="11">
-        <v>0</v>
-      </c>
-      <c r="D11" s="23">
-        <v>0</v>
-      </c>
-      <c r="E11" s="26">
+      <c r="C11" s="16">
+        <v>0</v>
+      </c>
+      <c r="D11" s="28">
+        <v>0</v>
+      </c>
+      <c r="E11" s="27">
         <v>1</v>
       </c>
       <c r="F11" s="9">
@@ -1513,21 +1953,21 @@
       <c r="R11" s="5">
         <v>1</v>
       </c>
-      <c r="S11" s="6" t="s">
+      <c r="S11" s="10" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="2:22">
-      <c r="B12" s="8">
+    <row r="12">
+      <c r="B12" s="15">
         <v>2000</v>
       </c>
-      <c r="C12" s="13">
-        <v>0</v>
-      </c>
-      <c r="D12" s="24">
-        <v>0</v>
-      </c>
-      <c r="E12" s="19">
+      <c r="C12" s="29">
+        <v>0</v>
+      </c>
+      <c r="D12" s="30">
+        <v>0</v>
+      </c>
+      <c r="E12" s="31">
         <v>1</v>
       </c>
       <c r="F12" s="9">
@@ -1569,25 +2009,25 @@
       <c r="R12" s="5">
         <v>0</v>
       </c>
-      <c r="S12" s="7"/>
-      <c r="U12" s="17" t="s">
+      <c r="S12" s="14"/>
+      <c r="U12" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="17" t="s">
+      <c r="V12" s="32" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="2:22">
-      <c r="B13" s="8" t="s">
+    <row r="13">
+      <c r="B13" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="13">
-        <v>0</v>
-      </c>
-      <c r="D13" s="14">
-        <v>0</v>
-      </c>
-      <c r="E13" s="25">
+      <c r="C13" s="29">
+        <v>0</v>
+      </c>
+      <c r="D13" s="33">
+        <v>0</v>
+      </c>
+      <c r="E13" s="26">
         <v>0</v>
       </c>
       <c r="F13" s="3">
@@ -1629,24 +2069,24 @@
       <c r="R13" s="5">
         <v>1</v>
       </c>
-      <c r="S13" s="6" t="s">
+      <c r="S13" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="U13" s="17" t="s">
+      <c r="U13" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="V13" s="17" t="s">
+      <c r="V13" s="32" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:22">
-      <c r="B14" s="8">
-        <v>0</v>
-      </c>
-      <c r="C14" s="15">
-        <v>0</v>
-      </c>
-      <c r="D14" s="16">
+    <row r="14">
+      <c r="B14" s="15">
+        <v>0</v>
+      </c>
+      <c r="C14" s="20">
+        <v>0</v>
+      </c>
+      <c r="D14" s="22">
         <v>0</v>
       </c>
       <c r="E14" s="9">
@@ -1691,11 +2131,11 @@
       <c r="R14" s="5">
         <v>0</v>
       </c>
-      <c r="S14" s="7"/>
-      <c r="U14" s="17" t="s">
+      <c r="S14" s="14"/>
+      <c r="U14" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="17" t="s">
+      <c r="V14" s="32" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1708,55 +2148,208 @@
     <mergeCell ref="S11:S12"/>
     <mergeCell ref="S13:S14"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{951E46D9-86A3-4291-BA63-B7B08CF724E8}">
-  <dimension ref="B2:G18"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="2">
+      <c r="C2" s="34" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="35"/>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="37"/>
+    </row>
+    <row r="4">
+      <c r="C4" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="39"/>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="F5" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="C6" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" s="43"/>
+    </row>
+    <row r="7">
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+    </row>
+    <row r="8">
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+    </row>
+    <row r="9">
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+    </row>
+    <row r="10">
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+    </row>
+    <row r="11">
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+    </row>
+    <row r="12">
+      <c r="C12" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="D12" s="49"/>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="C13" s="50"/>
+      <c r="D13" s="51"/>
+    </row>
+    <row r="14">
+      <c r="C14" s="50"/>
+      <c r="D14" s="51"/>
+      <c r="F14" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="52"/>
+      <c r="D15" s="53"/>
+    </row>
+    <row r="16">
+      <c r="C16" s="54" t="s">
+        <v>17</v>
+      </c>
+      <c r="D16" s="55"/>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="C17" s="56"/>
+      <c r="D17" s="57"/>
+    </row>
+    <row r="18">
+      <c r="C18" s="56"/>
+      <c r="D18" s="57"/>
+    </row>
+    <row r="19">
+      <c r="C19" s="56"/>
+      <c r="D19" s="57"/>
+    </row>
+    <row r="20">
+      <c r="C20" s="56"/>
+      <c r="D20" s="57"/>
+      <c r="F20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="56"/>
+      <c r="D21" s="57"/>
+    </row>
+    <row r="22">
+      <c r="B22" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="58"/>
+      <c r="D22" s="59"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:D3"/>
+    <mergeCell ref="C4:D5"/>
+    <mergeCell ref="C6:D11"/>
+    <mergeCell ref="C12:D15"/>
+    <mergeCell ref="C16:D22"/>
+  </mergeCells>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetViews>
+    <sheetView zoomScale="100" workbookViewId="0">
+      <selection activeCell="F14" activeCellId="0" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="3.85546875" customWidth="1"/>
-    <col min="2" max="2" width="14.42578125" customWidth="1"/>
+    <col customWidth="1" min="1" max="1" width="3.85546875"/>
+    <col customWidth="1" min="2" max="2" width="14.42578125"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7">
-      <c r="B2" s="34" t="s">
-        <v>19</v>
-      </c>
-      <c r="C2" s="34" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34"/>
-    </row>
-    <row r="3" spans="2:7">
-      <c r="B3" s="34"/>
+    <row r="2">
+      <c r="B2" s="60" t="s">
+        <v>33</v>
+      </c>
+      <c r="C2" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="D2" s="60"/>
+      <c r="E2" s="60"/>
+    </row>
+    <row r="3">
+      <c r="B3" s="60"/>
       <c r="C3" t="s">
-        <v>21</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="E3" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="F3" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="G3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="4" spans="2:7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
       <c r="B4" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1768,13 +2361,13 @@
         <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="G4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="2:7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="C5">
         <v>1</v>
       </c>
@@ -1785,15 +2378,15 @@
         <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="B6" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1805,13 +2398,13 @@
         <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="G6" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="2:7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="C7">
         <v>0</v>
       </c>
@@ -1822,15 +2415,15 @@
         <v>1</v>
       </c>
       <c r="F7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="G7" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="2:7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="B8" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="C8">
         <v>0</v>
@@ -1842,15 +2435,15 @@
         <v>1</v>
       </c>
       <c r="F8" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="G8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="2:7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="B9" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1862,13 +2455,13 @@
         <v>1</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="G9" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="C10">
         <v>1</v>
       </c>
@@ -1879,89 +2472,89 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="G10" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>57</v>
+      </c>
+      <c r="G11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
+        <v>59</v>
+      </c>
+      <c r="G12" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="B13" t="s">
+        <v>60</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
+        <v>63</v>
+      </c>
+      <c r="G14" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="11" spans="2:7">
-      <c r="B11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7">
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
-        <v>45</v>
-      </c>
-      <c r="G12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7">
-      <c r="B13" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
-        <v>47</v>
-      </c>
-      <c r="G13" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7">
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
-        <v>49</v>
-      </c>
-      <c r="G14" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7">
+    <row r="15">
       <c r="B15" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="C15">
         <v>0</v>
@@ -1973,43 +2566,43 @@
         <v>1</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="16" spans="2:7">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="B16" t="s">
-        <v>53</v>
+        <v>67</v>
       </c>
       <c r="F16" t="s">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="B17" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="G17" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="B18" t="s">
-        <v>57</v>
+        <v>71</v>
       </c>
       <c r="F18" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="G18" t="s">
-        <v>58</v>
+        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2017,6 +2610,9 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="0" gridLines="0"/>
+  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Assignments/Assigment_3/AC_Trab_3.xlsx
+++ b/Assignments/Assigment_3/AC_Trab_3.xlsx
@@ -1,21 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ac\CompArch-ISEL-2324\Assignments\Assigment_3\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B094BCB1-4C30-426B-B579-CB8303E16BB3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="1"/>
+    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="CS" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="new map" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="Assembly" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="CS" sheetId="1" r:id="rId1"/>
+    <sheet name="new map" sheetId="2" r:id="rId2"/>
+    <sheet name="Assembly" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
   <si>
     <t>FFFF</t>
   </si>
@@ -29,7 +36,7 @@
     <t>DFFF</t>
   </si>
   <si>
-    <t xml:space="preserve">#3 / #4</t>
+    <t>#3 / #4</t>
   </si>
   <si>
     <t>D000</t>
@@ -47,13 +54,13 @@
     <t>3FFF</t>
   </si>
   <si>
-    <t xml:space="preserve">#1 / #2</t>
+    <t>#1 / #2</t>
   </si>
   <si>
     <t>Ports</t>
   </si>
   <si>
-    <t xml:space="preserve">A15 A14 !A13 A12</t>
+    <t>A15 A14 !A13 A12</t>
   </si>
   <si>
     <t>1FFF</t>
@@ -71,28 +78,16 @@
     <t>ROM</t>
   </si>
   <si>
-    <t xml:space="preserve">!A15 !A14</t>
-  </si>
-  <si>
-    <t xml:space="preserve">OUT PORT</t>
+    <t>!A15 !A14</t>
+  </si>
+  <si>
+    <t>OUT PORT</t>
   </si>
   <si>
     <t>0xFFFF</t>
   </si>
   <si>
-    <t>0xFFF0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN PORT</t>
-  </si>
-  <si>
-    <t>0xFFEF</t>
-  </si>
-  <si>
-    <t>0xFFE0</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cs = A15 A14 A13 A12 A11 A10 </t>
+    <t>IN PORT</t>
   </si>
   <si>
     <t>free</t>
@@ -101,7 +96,7 @@
     <t>0x5FFF</t>
   </si>
   <si>
-    <t xml:space="preserve">cs = !A15 A14 !A13</t>
+    <t>cs = !A15 A14 !A13</t>
   </si>
   <si>
     <t>0x4000</t>
@@ -110,7 +105,7 @@
     <t>0x3FFF</t>
   </si>
   <si>
-    <t xml:space="preserve">cs = !A15 !A14</t>
+    <t>cs = !A15 !A14</t>
   </si>
   <si>
     <t>0x0000</t>
@@ -137,7 +132,7 @@
     <t>Data</t>
   </si>
   <si>
-    <t xml:space="preserve">push r1</t>
+    <t>push r1</t>
   </si>
   <si>
     <t>0x0012</t>
@@ -149,7 +144,7 @@
     <t>0x3FFE</t>
   </si>
   <si>
-    <t xml:space="preserve">ldr r1, [r2, #2]</t>
+    <t>ldr r1, [r2, #2]</t>
   </si>
   <si>
     <t>0x0014</t>
@@ -161,7 +156,7 @@
     <t>conf</t>
   </si>
   <si>
-    <t xml:space="preserve">add r0, r2, #1</t>
+    <t>add r0, r2, #1</t>
   </si>
   <si>
     <t>0x0016</t>
@@ -170,7 +165,7 @@
     <t>0xA0A0</t>
   </si>
   <si>
-    <t xml:space="preserve">strb r3, [r2,#5]</t>
+    <t>strb r3, [r2,#5]</t>
   </si>
   <si>
     <t>0x0018</t>
@@ -185,7 +180,7 @@
     <t>HZ</t>
   </si>
   <si>
-    <t xml:space="preserve">ldr r4, value</t>
+    <t>ldr r4, value</t>
   </si>
   <si>
     <t>0x001A</t>
@@ -197,7 +192,7 @@
     <t>0x0022</t>
   </si>
   <si>
-    <t xml:space="preserve">ldrb r5, [r6, #0]</t>
+    <t>ldrb r5, [r6, #0]</t>
   </si>
   <si>
     <t>0x001C</t>
@@ -234,22 +229,46 @@
   </si>
   <si>
     <t>0x1342</t>
+  </si>
+  <si>
+    <t>32K</t>
+  </si>
+  <si>
+    <t>16K</t>
+  </si>
+  <si>
+    <t>0xFC00</t>
+  </si>
+  <si>
+    <t>0xF800</t>
+  </si>
+  <si>
+    <t>0xFBFF</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>cs = A15  A14 A13 A12  A11 !A10</t>
+  </si>
+  <si>
+    <t>cs = A15 A14 A13 A12  A11 A10</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11.000000"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
       <scheme val="minor"/>
@@ -295,11 +314,11 @@
   </fills>
   <borders count="36">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -314,7 +333,7 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -326,21 +345,21 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -355,10 +374,10 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
@@ -368,18 +387,18 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -391,19 +410,19 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -412,11 +431,11 @@
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -431,7 +450,7 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -446,7 +465,7 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -461,7 +480,7 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -476,7 +495,7 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -491,7 +510,7 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -506,18 +525,18 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="none"/>
-      <top style="none"/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -526,22 +545,22 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -556,20 +575,20 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="medium">
         <color indexed="64"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -584,7 +603,7 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="medium">
@@ -599,7 +618,7 @@
       <bottom style="medium">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -614,7 +633,7 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -664,45 +683,45 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="none"/>
+      <right/>
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="1"/>
       </right>
       <top style="thin">
         <color theme="1"/>
       </top>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <bottom/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="none"/>
-      <top style="none"/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top style="none"/>
+      <top/>
       <bottom style="thin">
         <color theme="1"/>
       </bottom>
-      <diagonal style="none"/>
+      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -726,146 +745,146 @@
       <left style="thin">
         <color theme="1"/>
       </left>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
       <right style="thin">
         <color theme="1"/>
       </right>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="61">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="0" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFill="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="1" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="1" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="0" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="5" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="7" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="8" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="9" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="3" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="1" fillId="2" borderId="10" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="11" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="12" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="13" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="14" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="15" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="9" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="16" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="17" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="2" borderId="18" numFmtId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="19" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="20" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="21" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="2" borderId="22" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="1" fillId="2" borderId="23" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="0" fillId="3" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="3" borderId="27" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="28" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="29" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="30" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="4" borderId="31" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="24" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="25" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="32" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="33" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="26" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="27" numFmtId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="24" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="25" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="32" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="33" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="26" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="5" borderId="27" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="28" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="29" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="34" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="35" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="30" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="6" borderId="31" numFmtId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="32" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="33" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="34" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="35" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="31" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -878,295 +897,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/theme/theme.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
-  <a:themeElements>
-    <a:clrScheme name="Office">
-      <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
-      </a:dk1>
-      <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
-      </a:lt1>
-      <a:dk2>
-        <a:srgbClr val="1F497D"/>
-      </a:dk2>
-      <a:lt2>
-        <a:srgbClr val="EEECE1"/>
-      </a:lt2>
-      <a:accent1>
-        <a:srgbClr val="4F81BD"/>
-      </a:accent1>
-      <a:accent2>
-        <a:srgbClr val="C0504D"/>
-      </a:accent2>
-      <a:accent3>
-        <a:srgbClr val="9BBB59"/>
-      </a:accent3>
-      <a:accent4>
-        <a:srgbClr val="8064A2"/>
-      </a:accent4>
-      <a:accent5>
-        <a:srgbClr val="4BACC6"/>
-      </a:accent5>
-      <a:accent6>
-        <a:srgbClr val="F79646"/>
-      </a:accent6>
-      <a:hlink>
-        <a:srgbClr val="0000FF"/>
-      </a:hlink>
-      <a:folHlink>
-        <a:srgbClr val="800080"/>
-      </a:folHlink>
-    </a:clrScheme>
-    <a:fontScheme name="Office">
-      <a:majorFont>
-        <a:latin typeface="Cambria"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ ゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Angsana New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:majorFont>
-      <a:minorFont>
-        <a:latin typeface="Calibri"/>
-        <a:ea typeface=""/>
-        <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ 明朝"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Cordia New"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
-      </a:minorFont>
-    </a:fontScheme>
-    <a:fmtScheme name="Office">
-      <a:fillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="35000">
-              <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="80000">
-              <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
-        </a:gradFill>
-      </a:fillStyleLst>
-      <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-      </a:lnStyleLst>
-      <a:effectStyleLst>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
-        </a:effectStyle>
-      </a:effectStyleLst>
-      <a:bgFillStyleLst>
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="40000">
-              <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
-        </a:gradFill>
-      </a:bgFillStyleLst>
-    </a:fmtScheme>
-  </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-</a:theme>
-</file>
-
-<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1389,27 +1128,29 @@
       </a:style>
     </a:lnDef>
   </a:objectDefaults>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:V14"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="B12" activeCellId="0" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col bestFit="1" customWidth="1" min="3" max="6" style="1" width="3.28515625"/>
-    <col bestFit="1" customWidth="1" min="7" max="8" width="3.28515625"/>
-    <col bestFit="1" customWidth="1" min="9" max="10" width="2.28515625"/>
-    <col bestFit="1" customWidth="1" min="11" max="14" style="1" width="2.28515625"/>
-    <col bestFit="1" customWidth="1" min="15" max="18" width="2.28515625"/>
-    <col bestFit="1" customWidth="1" min="22" max="22" width="16.42578125"/>
+    <col min="3" max="6" width="3.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="3.33203125" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="14" width="2.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="18" width="2.33203125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="3">
         <v>15</v>
@@ -1461,7 +1202,7 @@
       </c>
       <c r="S2" s="2"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B3" s="6" t="s">
         <v>0</v>
       </c>
@@ -1513,24 +1254,24 @@
       <c r="R3" s="5">
         <v>1</v>
       </c>
-      <c r="S3" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4">
+      <c r="S3" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
       <c r="C4" s="4">
         <v>1</v>
       </c>
-      <c r="D4" s="11">
-        <v>1</v>
-      </c>
-      <c r="E4" s="12">
-        <v>1</v>
-      </c>
-      <c r="F4" s="13">
+      <c r="D4" s="10">
+        <v>1</v>
+      </c>
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="12">
         <v>0</v>
       </c>
       <c r="G4" s="2">
@@ -1569,25 +1310,25 @@
       <c r="R4" s="5">
         <v>0</v>
       </c>
-      <c r="S4" s="14"/>
-    </row>
-    <row r="5">
-      <c r="B5" s="15" t="s">
+      <c r="S4" s="33"/>
+    </row>
+    <row r="5" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B5" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="16">
-        <v>1</v>
-      </c>
-      <c r="D5" s="17">
-        <v>1</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0</v>
-      </c>
-      <c r="F5" s="18">
-        <v>1</v>
-      </c>
-      <c r="G5" s="19">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
+      <c r="E5" s="15">
+        <v>0</v>
+      </c>
+      <c r="F5" s="16">
+        <v>1</v>
+      </c>
+      <c r="G5" s="17">
         <v>1</v>
       </c>
       <c r="H5" s="2">
@@ -1623,27 +1364,27 @@
       <c r="R5" s="5">
         <v>1</v>
       </c>
-      <c r="S5" s="10" t="s">
+      <c r="S5" s="32" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6">
-      <c r="B6" s="15" t="s">
+    <row r="6" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B6" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="20">
-        <v>1</v>
-      </c>
-      <c r="D6" s="21">
-        <v>1</v>
-      </c>
-      <c r="E6" s="21">
-        <v>0</v>
-      </c>
-      <c r="F6" s="22">
-        <v>1</v>
-      </c>
-      <c r="G6" s="19">
+      <c r="C6" s="18">
+        <v>1</v>
+      </c>
+      <c r="D6" s="19">
+        <v>1</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="20">
+        <v>1</v>
+      </c>
+      <c r="G6" s="17">
         <v>0</v>
       </c>
       <c r="H6" s="2">
@@ -1679,22 +1420,22 @@
       <c r="R6" s="5">
         <v>0</v>
       </c>
-      <c r="S6" s="14"/>
-    </row>
-    <row r="7">
+      <c r="S6" s="33"/>
+    </row>
+    <row r="7" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B7" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="24">
-        <v>0</v>
-      </c>
-      <c r="E7" s="25">
-        <v>1</v>
-      </c>
-      <c r="F7" s="26">
+      <c r="C7" s="21">
+        <v>1</v>
+      </c>
+      <c r="D7" s="22">
+        <v>0</v>
+      </c>
+      <c r="E7" s="23">
+        <v>1</v>
+      </c>
+      <c r="F7" s="24">
         <v>1</v>
       </c>
       <c r="G7" s="2">
@@ -1733,11 +1474,11 @@
       <c r="R7" s="5">
         <v>1</v>
       </c>
-      <c r="S7" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
+      <c r="S7" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B8" s="6" t="s">
         <v>7</v>
       </c>
@@ -1747,7 +1488,7 @@
       <c r="D8" s="7">
         <v>0</v>
       </c>
-      <c r="E8" s="27">
+      <c r="E8" s="25">
         <v>1</v>
       </c>
       <c r="F8" s="9">
@@ -1789,9 +1530,9 @@
       <c r="R8" s="5">
         <v>0</v>
       </c>
-      <c r="S8" s="14"/>
-    </row>
-    <row r="9">
+      <c r="S8" s="33"/>
+    </row>
+    <row r="9" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B9" s="6" t="s">
         <v>8</v>
       </c>
@@ -1801,7 +1542,7 @@
       <c r="D9" s="7">
         <v>1</v>
       </c>
-      <c r="E9" s="27">
+      <c r="E9" s="25">
         <v>1</v>
       </c>
       <c r="F9" s="9">
@@ -1843,21 +1584,21 @@
       <c r="R9" s="5">
         <v>1</v>
       </c>
-      <c r="S9" s="10" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10">
+      <c r="S9" s="32" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:22" x14ac:dyDescent="0.3">
       <c r="B10" s="6">
         <v>6000</v>
       </c>
       <c r="C10" s="4">
         <v>0</v>
       </c>
-      <c r="D10" s="11">
-        <v>1</v>
-      </c>
-      <c r="E10" s="27">
+      <c r="D10" s="10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="25">
         <v>1</v>
       </c>
       <c r="F10" s="9">
@@ -1899,19 +1640,19 @@
       <c r="R10" s="5">
         <v>0</v>
       </c>
-      <c r="S10" s="14"/>
-    </row>
-    <row r="11">
-      <c r="B11" s="15" t="s">
+      <c r="S10" s="33"/>
+    </row>
+    <row r="11" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B11" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="16">
-        <v>0</v>
-      </c>
-      <c r="D11" s="28">
-        <v>0</v>
-      </c>
-      <c r="E11" s="27">
+      <c r="C11" s="14">
+        <v>0</v>
+      </c>
+      <c r="D11" s="26">
+        <v>0</v>
+      </c>
+      <c r="E11" s="25">
         <v>1</v>
       </c>
       <c r="F11" s="9">
@@ -1953,21 +1694,21 @@
       <c r="R11" s="5">
         <v>1</v>
       </c>
-      <c r="S11" s="10" t="s">
+      <c r="S11" s="32" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12">
-      <c r="B12" s="15">
+    <row r="12" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B12" s="13">
         <v>2000</v>
       </c>
-      <c r="C12" s="29">
-        <v>0</v>
-      </c>
-      <c r="D12" s="30">
-        <v>0</v>
-      </c>
-      <c r="E12" s="31">
+      <c r="C12" s="27">
+        <v>0</v>
+      </c>
+      <c r="D12" s="28">
+        <v>0</v>
+      </c>
+      <c r="E12" s="29">
         <v>1</v>
       </c>
       <c r="F12" s="9">
@@ -2009,25 +1750,25 @@
       <c r="R12" s="5">
         <v>0</v>
       </c>
-      <c r="S12" s="14"/>
-      <c r="U12" s="32" t="s">
+      <c r="S12" s="33"/>
+      <c r="U12" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="V12" s="32" t="s">
+      <c r="V12" s="30" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="15" t="s">
+    <row r="13" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B13" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="29">
-        <v>0</v>
-      </c>
-      <c r="D13" s="33">
-        <v>0</v>
-      </c>
-      <c r="E13" s="26">
+      <c r="C13" s="27">
+        <v>0</v>
+      </c>
+      <c r="D13" s="31">
+        <v>0</v>
+      </c>
+      <c r="E13" s="24">
         <v>0</v>
       </c>
       <c r="F13" s="3">
@@ -2069,24 +1810,24 @@
       <c r="R13" s="5">
         <v>1</v>
       </c>
-      <c r="S13" s="10" t="s">
+      <c r="S13" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="U13" s="32" t="s">
+      <c r="U13" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="V13" s="32" t="s">
+      <c r="V13" s="30" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14">
-      <c r="B14" s="15">
-        <v>0</v>
-      </c>
-      <c r="C14" s="20">
-        <v>0</v>
-      </c>
-      <c r="D14" s="22">
+    <row r="14" spans="2:22" x14ac:dyDescent="0.3">
+      <c r="B14" s="13">
+        <v>0</v>
+      </c>
+      <c r="C14" s="18">
+        <v>0</v>
+      </c>
+      <c r="D14" s="20">
         <v>0</v>
       </c>
       <c r="E14" s="9">
@@ -2131,40 +1872,39 @@
       <c r="R14" s="5">
         <v>0</v>
       </c>
-      <c r="S14" s="14"/>
-      <c r="U14" s="32" t="s">
+      <c r="S14" s="33"/>
+      <c r="U14" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="V14" s="32" t="s">
+      <c r="V14" s="30" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
+    <mergeCell ref="S13:S14"/>
     <mergeCell ref="S3:S4"/>
     <mergeCell ref="S5:S6"/>
     <mergeCell ref="S7:S8"/>
     <mergeCell ref="S9:S10"/>
     <mergeCell ref="S11:S12"/>
-    <mergeCell ref="S13:S14"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="B2:L22"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C2" s="34" t="s">
         <v>19</v>
       </c>
@@ -2173,120 +1913,144 @@
         <v>20</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>21</v>
+        <v>71</v>
       </c>
       <c r="C3" s="36"/>
       <c r="D3" s="37"/>
-    </row>
-    <row r="4">
+      <c r="F3" t="s">
+        <v>76</v>
+      </c>
+      <c r="J3" t="s">
+        <v>74</v>
+      </c>
+      <c r="K3">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C4" s="38" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D4" s="39"/>
       <c r="E4" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="C5" s="40"/>
       <c r="D5" s="41"/>
       <c r="F5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>75</v>
+      </c>
+      <c r="J5" t="s">
+        <v>74</v>
+      </c>
+      <c r="K5">
+        <v>1000</v>
+      </c>
+      <c r="L5">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C6" s="42" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="D6" s="43"/>
     </row>
-    <row r="7">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C7" s="44"/>
       <c r="D7" s="45"/>
     </row>
-    <row r="8">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C8" s="44"/>
       <c r="D8" s="45"/>
     </row>
-    <row r="9">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C9" s="44"/>
       <c r="D9" s="45"/>
     </row>
-    <row r="10">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C10" s="44"/>
       <c r="D10" s="45"/>
     </row>
-    <row r="11">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C11" s="46"/>
       <c r="D11" s="47"/>
     </row>
-    <row r="12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C12" s="48" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="49"/>
       <c r="E12" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C13" s="50"/>
       <c r="D13" s="51"/>
     </row>
-    <row r="14">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C14" s="50"/>
       <c r="D14" s="51"/>
       <c r="F14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>24</v>
+      </c>
+      <c r="H14" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C15" s="52"/>
       <c r="D15" s="53"/>
     </row>
-    <row r="16">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.3">
       <c r="C16" s="54" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="55"/>
       <c r="E16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C17" s="56"/>
       <c r="D17" s="57"/>
     </row>
-    <row r="18">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C18" s="56"/>
       <c r="D18" s="57"/>
     </row>
-    <row r="19">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C19" s="56"/>
       <c r="D19" s="57"/>
     </row>
-    <row r="20">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C20" s="56"/>
       <c r="D20" s="57"/>
       <c r="F20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.3">
       <c r="C21" s="56"/>
       <c r="D21" s="57"/>
     </row>
-    <row r="22">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C22" s="58"/>
       <c r="D22" s="59"/>
@@ -2299,310 +2063,309 @@
     <mergeCell ref="C12:D15"/>
     <mergeCell ref="C16:D22"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.70078740157480324" right="0.70078740157480324" top="0.75196850393700787" bottom="0.75196850393700787" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="B2:G18"/>
   <sheetViews>
-    <sheetView zoomScale="100" workbookViewId="0">
-      <selection activeCell="F14" activeCellId="0" sqref="F14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="3.85546875"/>
-    <col customWidth="1" min="2" max="2" width="14.42578125"/>
+    <col min="1" max="1" width="3.88671875" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B2" s="60" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C2" s="60" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="D2" s="60"/>
       <c r="E2" s="60"/>
     </row>
-    <row r="3">
+    <row r="3" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B3" s="60"/>
       <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F3" t="s">
+        <v>34</v>
+      </c>
+      <c r="G3" t="s">
         <v>35</v>
       </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
         <v>36</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
         <v>37</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G4" t="s">
         <v>38</v>
       </c>
-      <c r="G3" t="s">
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="B4" t="s">
+      <c r="G5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
         <v>40</v>
       </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6" t="s">
         <v>41</v>
       </c>
-      <c r="G4" t="s">
+      <c r="G6" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="5">
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5" t="s">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" t="s">
         <v>43</v>
       </c>
-      <c r="G5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="B6" t="s">
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
         <v>44</v>
       </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
         <v>45</v>
       </c>
-      <c r="G6" t="s">
+      <c r="G8" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="7">
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G7" t="s">
+    <row r="9" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="s">
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>1</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-      <c r="F8" t="s">
+      <c r="G9" t="s">
         <v>49</v>
       </c>
-      <c r="G8" t="s">
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="9">
-      <c r="B9" t="s">
+      <c r="G10" t="s">
         <v>51</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>1</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-      <c r="F9" t="s">
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
         <v>52</v>
       </c>
-      <c r="G9" t="s">
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="G11" t="s">
         <v>54</v>
       </c>
-      <c r="G10" t="s">
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="s">
+      <c r="G12" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
         <v>56</v>
       </c>
-      <c r="C11">
-        <v>0</v>
-      </c>
-      <c r="D11">
-        <v>1</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-      <c r="F11" t="s">
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
         <v>57</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G13" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12">
-      <c r="C12">
-        <v>0</v>
-      </c>
-      <c r="D12">
-        <v>1</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-      <c r="F12" t="s">
+    <row r="14" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14" t="s">
         <v>59</v>
       </c>
-      <c r="G12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" t="s">
+      <c r="G14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
         <v>60</v>
       </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>1</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15" t="s">
         <v>61</v>
       </c>
-      <c r="G13" t="s">
+      <c r="G15" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="14">
-      <c r="C14">
-        <v>0</v>
-      </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14" t="s">
+    <row r="16" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
         <v>63</v>
       </c>
-      <c r="G14" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="s">
+      <c r="F16" t="s">
         <v>64</v>
       </c>
-      <c r="C15">
-        <v>0</v>
-      </c>
-      <c r="D15">
-        <v>1</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15" t="s">
+      <c r="G16" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
         <v>65</v>
       </c>
-      <c r="G15" t="s">
+      <c r="F17" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="16">
-      <c r="B16" t="s">
+    <row r="18" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
         <v>67</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F18" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" t="s">
         <v>68</v>
-      </c>
-      <c r="G16" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" t="s">
-        <v>69</v>
-      </c>
-      <c r="F17" t="s">
-        <v>59</v>
-      </c>
-      <c r="G17" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" t="s">
-        <v>71</v>
-      </c>
-      <c r="F18" t="s">
-        <v>70</v>
-      </c>
-      <c r="G18" t="s">
-        <v>72</v>
       </c>
     </row>
   </sheetData>
@@ -2610,9 +2373,7 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <printOptions headings="0" gridLines="0"/>
-  <pageMargins left="0.69999999999999996" right="0.69999999999999996" top="0.75" bottom="0.75" header="0.29999999999999999" footer="0.29999999999999999"/>
-  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="1" blackAndWhite="0" draft="0" cellComments="none" useFirstPageNumber="0" errors="displayed" horizontalDpi="600" verticalDpi="600" copies="1"/>
-  <headerFooter/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
 </worksheet>
 </file>
--- a/Assignments/Assigment_3/AC_Trab_3.xlsx
+++ b/Assignments/Assigment_3/AC_Trab_3.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="76">
   <si>
     <t xml:space="preserve">FFFF</t>
   </si>
@@ -81,40 +81,37 @@
     <t xml:space="preserve">!A15 !A14</t>
   </si>
   <si>
-    <t xml:space="preserve">OUT PORT</t>
+    <t xml:space="preserve">OUT PORT (fold-back)</t>
   </si>
   <si>
     <t xml:space="preserve">0xFFFF</t>
   </si>
   <si>
-    <t xml:space="preserve">foldbak</t>
+    <t xml:space="preserve">CS = A15 A14 A13 A12  A11 A10</t>
   </si>
   <si>
     <t xml:space="preserve">0xFC00</t>
   </si>
   <si>
-    <t xml:space="preserve">cs = A15 A14 A13 A12  A11 A10</t>
-  </si>
-  <si>
-    <t xml:space="preserve">IN PORT</t>
+    <t xml:space="preserve">IN PORT(fold-back)</t>
   </si>
   <si>
     <t xml:space="preserve">0xFBFF</t>
   </si>
   <si>
+    <t xml:space="preserve">CS = A15  A14 A13 A12 A11 !A10</t>
+  </si>
+  <si>
     <t xml:space="preserve">0xF800</t>
   </si>
   <si>
-    <t xml:space="preserve">cs = A15  A14 A13 A12  A11 !A10</t>
-  </si>
-  <si>
     <t xml:space="preserve">NOT USED</t>
   </si>
   <si>
     <t xml:space="preserve">0x5FFF</t>
   </si>
   <si>
-    <t xml:space="preserve">cs = !A15 A14 !A13</t>
+    <t xml:space="preserve">CS = !A15 A14 !A13</t>
   </si>
   <si>
     <t xml:space="preserve">8K</t>
@@ -126,7 +123,7 @@
     <t xml:space="preserve">0x3FFF</t>
   </si>
   <si>
-    <t xml:space="preserve">cs = !A15 !A14</t>
+    <t xml:space="preserve">CS = !A15 !A14</t>
   </si>
   <si>
     <t xml:space="preserve">32K</t>
@@ -1706,10 +1703,15 @@
   <dimension ref="B2:J22"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K17" activeCellId="0" sqref="K17"/>
+      <selection pane="topLeft" activeCell="I12" activeCellId="0" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="1.83"/>
+  </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C2" s="33" t="s">
@@ -1719,9 +1721,10 @@
       <c r="E2" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="J2" s="34" t="s">
+      <c r="F2" s="34" t="s">
         <v>21</v>
       </c>
+      <c r="J2" s="34"/>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="0" t="s">
@@ -1729,22 +1732,21 @@
       </c>
       <c r="C3" s="33"/>
       <c r="D3" s="33"/>
-      <c r="F3" s="0" t="s">
-        <v>23</v>
-      </c>
+      <c r="F3" s="34"/>
       <c r="J3" s="34"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="35" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D4" s="35"/>
       <c r="E4" s="0" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="34" t="s">
         <v>25</v>
       </c>
-      <c r="J4" s="34" t="s">
-        <v>21</v>
-      </c>
+      <c r="J4" s="34"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B5" s="0" t="s">
@@ -1752,14 +1754,12 @@
       </c>
       <c r="C5" s="35"/>
       <c r="D5" s="35"/>
-      <c r="F5" s="0" t="s">
-        <v>27</v>
-      </c>
+      <c r="F5" s="34"/>
       <c r="J5" s="34"/>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D6" s="10"/>
     </row>
@@ -1783,87 +1783,100 @@
       <c r="C11" s="10"/>
       <c r="D11" s="10"/>
     </row>
-    <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="36" t="s">
         <v>15</v>
       </c>
       <c r="D12" s="36"/>
       <c r="E12" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="F12" s="34" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="36"/>
       <c r="D13" s="36"/>
-    </row>
-    <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F13" s="34"/>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="36"/>
       <c r="D14" s="36"/>
-      <c r="F14" s="0" t="s">
+      <c r="F14" s="34"/>
+      <c r="H14" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="H14" s="0" t="s">
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B15" s="0" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="0" t="s">
-        <v>32</v>
       </c>
       <c r="C15" s="36"/>
       <c r="D15" s="36"/>
-    </row>
-    <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F15" s="34"/>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="37" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="0" t="s">
+        <v>32</v>
+      </c>
+      <c r="F16" s="34" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="37"/>
       <c r="D17" s="37"/>
-    </row>
-    <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F17" s="34"/>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="37"/>
       <c r="D18" s="37"/>
-    </row>
-    <row r="19" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="34"/>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="37"/>
       <c r="D19" s="37"/>
-    </row>
-    <row r="20" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F19" s="34"/>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="37"/>
       <c r="D20" s="37"/>
-      <c r="F20" s="0" t="s">
+      <c r="F20" s="34"/>
+      <c r="H20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="H20" s="0" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="37"/>
       <c r="D21" s="37"/>
-    </row>
-    <row r="22" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="34"/>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B22" s="0" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C22" s="37"/>
       <c r="D22" s="37"/>
+      <c r="F22" s="34"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="11">
     <mergeCell ref="C2:D3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="C4:D5"/>
+    <mergeCell ref="F4:F5"/>
     <mergeCell ref="J4:J5"/>
     <mergeCell ref="C6:D11"/>
     <mergeCell ref="C12:D15"/>
+    <mergeCell ref="F12:F15"/>
     <mergeCell ref="C16:D22"/>
+    <mergeCell ref="F16:F22"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.700694444444445" right="0.700694444444445" top="0.752083333333333" bottom="0.752083333333333" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1894,10 +1907,10 @@
   <sheetData>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B2" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" s="38" t="s">
         <v>37</v>
-      </c>
-      <c r="C2" s="38" t="s">
-        <v>38</v>
       </c>
       <c r="D2" s="38"/>
       <c r="E2" s="38"/>
@@ -1905,39 +1918,39 @@
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="38"/>
       <c r="C3" s="0" t="s">
+        <v>38</v>
+      </c>
+      <c r="D3" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="D3" s="0" t="s">
+      <c r="E3" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="0" t="s">
+      <c r="F3" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="0" t="s">
+      <c r="G3" s="0" t="s">
         <v>42</v>
-      </c>
-      <c r="G3" s="0" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="0" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F4" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E4" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F4" s="0" t="s">
+      <c r="G4" s="0" t="s">
         <v>45</v>
-      </c>
-      <c r="G4" s="0" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1951,30 +1964,30 @@
         <v>0</v>
       </c>
       <c r="F5" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G5" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B6" s="0" t="s">
+        <v>47</v>
+      </c>
+      <c r="C6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F6" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="C6" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E6" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F6" s="0" t="s">
+      <c r="G6" s="0" t="s">
         <v>49</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1988,50 +2001,50 @@
         <v>1</v>
       </c>
       <c r="F7" s="0" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G7" s="0" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B8" s="0" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E8" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F8" s="0" t="s">
         <v>52</v>
       </c>
-      <c r="C8" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E8" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F8" s="0" t="s">
+      <c r="G8" s="0" t="s">
         <v>53</v>
-      </c>
-      <c r="G8" s="0" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="0" t="s">
+        <v>54</v>
+      </c>
+      <c r="C9" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F9" s="0" t="s">
         <v>55</v>
       </c>
-      <c r="C9" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E9" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F9" s="0" t="s">
+      <c r="G9" s="0" t="s">
         <v>56</v>
-      </c>
-      <c r="G9" s="0" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2045,30 +2058,30 @@
         <v>0</v>
       </c>
       <c r="F10" s="0" t="s">
+        <v>57</v>
+      </c>
+      <c r="G10" s="0" t="s">
         <v>58</v>
-      </c>
-      <c r="G10" s="0" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B11" s="0" t="s">
+        <v>59</v>
+      </c>
+      <c r="C11" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E11" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F11" s="0" t="s">
         <v>60</v>
       </c>
-      <c r="C11" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E11" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F11" s="0" t="s">
+      <c r="G11" s="0" t="s">
         <v>61</v>
-      </c>
-      <c r="G11" s="0" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2082,30 +2095,30 @@
         <v>1</v>
       </c>
       <c r="F12" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G12" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="0" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F13" s="0" t="s">
         <v>64</v>
       </c>
-      <c r="C13" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E13" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F13" s="0" t="s">
+      <c r="G13" s="0" t="s">
         <v>65</v>
-      </c>
-      <c r="G13" s="0" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2119,63 +2132,63 @@
         <v>1</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G14" s="0" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="0" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>1</v>
+      </c>
+      <c r="F15" s="0" t="s">
         <v>68</v>
       </c>
-      <c r="C15" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E15" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="F15" s="0" t="s">
+      <c r="G15" s="0" t="s">
         <v>69</v>
-      </c>
-      <c r="G15" s="0" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="0" t="s">
+        <v>70</v>
+      </c>
+      <c r="F16" s="0" t="s">
         <v>71</v>
       </c>
-      <c r="F16" s="0" t="s">
-        <v>72</v>
-      </c>
       <c r="G16" s="0" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="0" t="s">
+        <v>72</v>
+      </c>
+      <c r="F17" s="0" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="0" t="s">
         <v>73</v>
-      </c>
-      <c r="F17" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="G17" s="0" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="0" t="s">
+        <v>74</v>
+      </c>
+      <c r="F18" s="0" t="s">
+        <v>73</v>
+      </c>
+      <c r="G18" s="0" t="s">
         <v>75</v>
-      </c>
-      <c r="F18" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="G18" s="0" t="s">
-        <v>76</v>
       </c>
     </row>
   </sheetData>
